--- a/results/results2.xlsx
+++ b/results/results2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C20C1C4-3285-4E2B-ABD2-E76100049D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA384BE-FF1B-44A9-AC50-37D3988A43EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>T</t>
   </si>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="K215" sqref="K215:K225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2266,6 +2266,578 @@
         <v>0</v>
       </c>
     </row>
+    <row r="175" spans="1:11">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177">
+        <v>900</v>
+      </c>
+      <c r="C177">
+        <v>900</v>
+      </c>
+      <c r="K177">
+        <f t="shared" ref="K177:K225" si="5">AVERAGE(B177:C177)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="B178">
+        <v>690</v>
+      </c>
+      <c r="C178">
+        <v>700</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="5"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="B179">
+        <v>430</v>
+      </c>
+      <c r="C179">
+        <v>420</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="B180">
+        <v>220</v>
+      </c>
+      <c r="C180">
+        <v>210</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="5"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="B181">
+        <v>120</v>
+      </c>
+      <c r="C181">
+        <v>120</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="B182">
+        <v>90</v>
+      </c>
+      <c r="C182">
+        <v>100</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="B183">
+        <v>80</v>
+      </c>
+      <c r="C183">
+        <v>100</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="B184">
+        <v>80</v>
+      </c>
+      <c r="C184">
+        <v>100</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="B185">
+        <v>80</v>
+      </c>
+      <c r="C185">
+        <v>100</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="B186">
+        <v>80</v>
+      </c>
+      <c r="C186">
+        <v>100</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="B187">
+        <v>80</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="B188">
+        <v>80</v>
+      </c>
+      <c r="C188">
+        <v>100</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190">
+        <v>100</v>
+      </c>
+      <c r="C190">
+        <v>100</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="B191">
+        <v>210</v>
+      </c>
+      <c r="C191">
+        <v>200</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="B192">
+        <v>260</v>
+      </c>
+      <c r="C192">
+        <v>280</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="B193">
+        <v>210</v>
+      </c>
+      <c r="C193">
+        <v>210</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="B194">
+        <v>100</v>
+      </c>
+      <c r="C194">
+        <v>90</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="B195">
+        <v>30</v>
+      </c>
+      <c r="C195">
+        <v>20</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="B196">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11">
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/results2.xlsx
+++ b/results/results2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA384BE-FF1B-44A9-AC50-37D3988A43EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8E3CA209-378F-4DD4-8513-D3FD8D65B4DE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>T</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>vaccine_limit</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
   <si>
     <t>DRMDP Decision-dependent 1</t>
@@ -435,13 +438,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="K215" sqref="K215:K225"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +460,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -465,7 +468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -473,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -481,7 +484,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -489,31 +492,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f>C9*C17</f>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f>C10*C17</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f>C10*C17</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -521,15 +536,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f>C13*C17</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -537,7 +556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -545,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -553,14 +572,22 @@
         <v>100</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>50000</v>
+      </c>
+    </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>900</v>
@@ -707,7 +734,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -854,7 +881,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -989,7 +1016,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1129,10 +1156,14 @@
       <c r="C71">
         <v>1.5</v>
       </c>
+      <c r="D71">
+        <f>C71*C17</f>
+        <v>75000</v>
+      </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73">
         <v>900</v>
@@ -1279,7 +1310,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -1426,7 +1457,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1561,7 +1592,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1701,10 +1732,14 @@
       <c r="C123">
         <v>10</v>
       </c>
+      <c r="D123">
+        <f>C123*C17</f>
+        <v>500000</v>
+      </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B125">
         <v>900</v>
@@ -1851,7 +1886,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B138">
         <v>100</v>
@@ -1998,7 +2033,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B151">
         <v>100</v>
@@ -2133,7 +2168,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B163">
         <v>5</v>
@@ -2273,10 +2308,14 @@
       <c r="C175">
         <v>0.5</v>
       </c>
+      <c r="D175">
+        <f>C175*C17</f>
+        <v>25000</v>
+      </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B177">
         <v>900</v>
@@ -2423,7 +2462,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B190">
         <v>100</v>
@@ -2570,7 +2609,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -2705,7 +2744,7 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B215">
         <v>0</v>
